--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -636,27 +636,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 11246-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 11246-2022.xlsx", "A 11246-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 11246-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 11246-2022.png", "A 11246-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 11246-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 11246-2022.docx", "A 11246-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 11246-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 11246-2022.docx", "A 11246-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 11246-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 11246-2022.docx", "A 11246-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 11246-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 11246-2022.docx", "A 11246-2022")</f>
         <v/>
       </c>
     </row>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -728,27 +728,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 3888-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 3888-2019.xlsx", "A 3888-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 3888-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 3888-2019.png", "A 3888-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 3888-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 3888-2019.docx", "A 3888-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 3888-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 3888-2019.docx", "A 3888-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 3888-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 3888-2019.docx", "A 3888-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 3888-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 3888-2019.docx", "A 3888-2019")</f>
         <v/>
       </c>
     </row>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -823,27 +823,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 6858-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 6858-2021.xlsx", "A 6858-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 6858-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 6858-2021.png", "A 6858-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 6858-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 6858-2021.docx", "A 6858-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 6858-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 6858-2021.docx", "A 6858-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 6858-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 6858-2021.docx", "A 6858-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 6858-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 6858-2021.docx", "A 6858-2021")</f>
         <v/>
       </c>
     </row>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,27 +917,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 9931-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 9931-2021.xlsx", "A 9931-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 9931-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 9931-2021.png", "A 9931-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 9931-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 9931-2021.docx", "A 9931-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 9931-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 9931-2021.docx", "A 9931-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 9931-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 9931-2021.docx", "A 9931-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 9931-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 9931-2021.docx", "A 9931-2021")</f>
         <v/>
       </c>
     </row>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,27 +1010,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 8325-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 8325-2021.xlsx", "A 8325-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 8325-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 8325-2021.png", "A 8325-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 8325-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 8325-2021.docx", "A 8325-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 8325-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 8325-2021.docx", "A 8325-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 8325-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 8325-2021.docx", "A 8325-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 8325-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 8325-2021.docx", "A 8325-2021")</f>
         <v/>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,27 +1097,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 14700-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 14700-2019.xlsx", "A 14700-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 14700-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 14700-2019.png", "A 14700-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 14700-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 14700-2019.docx", "A 14700-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 14700-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 14700-2019.docx", "A 14700-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 14700-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 14700-2019.docx", "A 14700-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 14700-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 14700-2019.docx", "A 14700-2019")</f>
         <v/>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,27 +1183,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 51072-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 51072-2021.xlsx", "A 51072-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 51072-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 51072-2021.png", "A 51072-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 51072-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 51072-2021.docx", "A 51072-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 51072-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 51072-2021.docx", "A 51072-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 51072-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 51072-2021.docx", "A 51072-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 51072-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 51072-2021.docx", "A 51072-2021")</f>
         <v/>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,27 +1274,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 66072-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 66072-2021.xlsx", "A 66072-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 66072-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 66072-2021.png", "A 66072-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 66072-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 66072-2021.docx", "A 66072-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 66072-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 66072-2021.docx", "A 66072-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 66072-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 66072-2021.docx", "A 66072-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 66072-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 66072-2021.docx", "A 66072-2021")</f>
         <v/>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,27 +1360,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 72989-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 72989-2021.xlsx", "A 72989-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 72989-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 72989-2021.png", "A 72989-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 72989-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 72989-2021.docx", "A 72989-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 72989-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 72989-2021.docx", "A 72989-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 72989-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 72989-2021.docx", "A 72989-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 72989-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 72989-2021.docx", "A 72989-2021")</f>
         <v/>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,27 +1445,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 28904-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 28904-2019.xlsx", "A 28904-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 28904-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 28904-2019.png", "A 28904-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 28904-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 28904-2019.docx", "A 28904-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 28904-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 28904-2019.docx", "A 28904-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 28904-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 28904-2019.docx", "A 28904-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 28904-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 28904-2019.docx", "A 28904-2019")</f>
         <v/>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,27 +1530,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 68077-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 68077-2020.xlsx", "A 68077-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 68077-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 68077-2020.png", "A 68077-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 68077-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 68077-2020.docx", "A 68077-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 68077-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 68077-2020.docx", "A 68077-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 68077-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 68077-2020.docx", "A 68077-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 68077-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 68077-2020.docx", "A 68077-2020")</f>
         <v/>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,27 +1620,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 26233-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 26233-2022.xlsx", "A 26233-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 26233-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 26233-2022.png", "A 26233-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 26233-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 26233-2022.docx", "A 26233-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 26233-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 26233-2022.docx", "A 26233-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 26233-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 26233-2022.docx", "A 26233-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 26233-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 26233-2022.docx", "A 26233-2022")</f>
         <v/>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,27 +1705,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 60736-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/artfynd/A 60736-2022.xlsx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 60736-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/kartor/A 60736-2022.png", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 60736-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomål/A 60736-2022.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 60736-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/klagomålsmail/A 60736-2022.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 60736-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsyn/A 60736-2022.docx", "A 60736-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 60736-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FORSHAGA/tillsynsmail/A 60736-2022.docx", "A 60736-2022")</f>
         <v/>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y300"/>
+  <dimension ref="A1:Y301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
       </c>
       <c r="R299" s="2" t="inlineStr"/>
     </row>
-    <row r="300">
+    <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
           <t>A 39203-2023</t>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18535,6 +18535,68 @@
         <v>0</v>
       </c>
       <c r="R300" s="2" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>A 44281-2023</t>
+        </is>
+      </c>
+      <c r="B301" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C301" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>FORSHAGA</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R301" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>45188</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>45188</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>45188</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>45188</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>45188</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>45188</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>

--- a/Översikt FORSHAGA.xlsx
+++ b/Översikt FORSHAGA.xlsx
@@ -572,7 +572,7 @@
         <v>44629</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44237</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         <v>44244</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>43535</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>44461</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>44517</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44549</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         <v>43628</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44913</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>43416</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43428</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43437</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43437</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>43444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>43453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43475</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>43475</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         <v>43483</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>43494</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>43496</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43502</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>43515</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43528</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         <v>43532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43536</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>43537</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43543</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43544</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43545</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>43551</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43553</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43573</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>43579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>43579</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43580</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43580</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43581</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>43592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>43599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43612</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43612</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43630</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43641</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>43641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>43661</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>43692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>43692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43694</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4835,7 +4835,7 @@
         <v>43698</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>43698</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>43698</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>43711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43724</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>43761</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>43761</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>43764</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43794</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>43796</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>43802</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>43805</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>43805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43818</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43832</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43833</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43846</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6104,7 +6104,7 @@
         <v>43852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>43886</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43886</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>43906</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>43907</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43907</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43907</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>43909</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43916</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43916</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43927</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>43928</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>43928</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>43976</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44004</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44005</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44023</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44053</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44061</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44062</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44067</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44067</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44078</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44078</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44101</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44102</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44102</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44123</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>44138</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>44146</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44147</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44150</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44173</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44175</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44180</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44187</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44187</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>44188</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44188</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44188</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>44211</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>44211</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44228</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44237</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44269</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44284</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44336</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44364</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>44368</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>44375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>44393</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>44417</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>44417</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>44425</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>44441</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44441</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44447</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>44447</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44454</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44461</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44470</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44477</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44480</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>44523</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44523</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44524</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44532</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44535</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>44542</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         <v>44542</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>44544</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>44550</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44566</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>44578</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44581</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>44596</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>44601</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         <v>44606</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44608</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>44616</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>44616</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44627</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44638</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44662</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44662</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44694</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44694</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44697</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44720</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44720</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44720</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44724</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>44726</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12943,7 +12943,7 @@
         <v>44735</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44753</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>44753</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44754</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13248,7 +13248,7 @@
         <v>44754</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44771</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44785</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44790</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44796</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44796</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44809</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44812</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44823</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44836</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44839</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44865</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44868</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44876</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44876</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44880</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>44880</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>44881</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>44890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44895</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44901</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44902</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44902</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44902</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44907</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>44907</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>44916</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44944</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>44967</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>44970</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>44970</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>44970</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>44971</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>44972</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44972</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>44973</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>44987</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45012</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45041</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45049</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45055</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45057</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45062</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45078</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45085</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>45091</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45099</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45107</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45119</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>45121</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45124</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45124</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45127</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45127</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>45127</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45127</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45127</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45127</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45140</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>45145</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>45145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>45146</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>45146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45147</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45147</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45148</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45149</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>45162</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>45166</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>45166</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45166</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>45188</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
